--- a/src/test/resources/excelImport/teststudyStructured.xlsx
+++ b/src/test/resources/excelImport/teststudyStructured.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Study data" sheetId="1" state="visible" r:id="rId2"/>
@@ -402,15 +402,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,12 +442,6 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M2" s="1" t="str">
@@ -640,7 +634,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="M1:T1"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -683,7 +677,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,12 +847,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +938,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,12 +1013,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,7 +1116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/excelImport/teststudyStructured.xlsx
+++ b/src/test/resources/excelImport/teststudyStructured.xlsx
@@ -404,13 +404,13 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,12 +672,12 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,12 +847,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,12 +933,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,7 +1018,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,16 +1110,16 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>81</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>84</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>86</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>89</v>
       </c>

--- a/src/test/resources/excelImport/teststudyStructured.xlsx
+++ b/src/test/resources/excelImport/teststudyStructured.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Study data" sheetId="1" state="visible" r:id="rId2"/>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">periodicity</t>
   </si>
   <si>
-    <t xml:space="preserve">washoutActivityUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/washoutActivityUri</t>
   </si>
   <si>
     <t xml:space="preserve">washout</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">wash out</t>
   </si>
   <si>
-    <t xml:space="preserve">vildaActivityUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/vildagliptinActivityUri</t>
   </si>
   <si>
     <t xml:space="preserve">Vildagliptin + placebo</t>
@@ -171,7 +171,7 @@
     <t xml:space="preserve">P1D</t>
   </si>
   <si>
-    <t xml:space="preserve">placeboActivityUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/placeboActivityUri</t>
   </si>
   <si>
     <t xml:space="preserve">placebo</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">titrated</t>
   </si>
   <si>
-    <t xml:space="preserve">randomisationActivityUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/randomisationActivityUri</t>
   </si>
   <si>
     <t xml:space="preserve">Randomisation</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">Is primary?</t>
   </si>
   <si>
-    <t xml:space="preserve">randomisationEpochUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/randomisationEpochUri</t>
   </si>
   <si>
     <t xml:space="preserve">PT0S</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">false</t>
   </si>
   <si>
-    <t xml:space="preserve">treatmentPhaseEpochUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/treatmentPhaseEpochUri</t>
   </si>
   <si>
     <t xml:space="preserve">treatment phase</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">true</t>
   </si>
   <si>
-    <t xml:space="preserve">washoutEpochUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/washoutEpochUri</t>
   </si>
   <si>
     <t xml:space="preserve">arm</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">offset</t>
   </si>
   <si>
-    <t xml:space="preserve">baselineMeasurementMomentUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/baselineMeasurementMomentUri</t>
   </si>
   <si>
     <t xml:space="preserve">Baseline</t>
@@ -243,13 +243,13 @@
     <t xml:space="preserve">end</t>
   </si>
   <si>
-    <t xml:space="preserve">week52MeasurementMomentUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/week52MeasurementMomentUri</t>
   </si>
   <si>
     <t xml:space="preserve">Week 52</t>
   </si>
   <si>
-    <t xml:space="preserve">week12MeasurementMomentUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/week12MeasurementMomentUri</t>
   </si>
   <si>
     <t xml:space="preserve">Week 12</t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve">multiplier</t>
   </si>
   <si>
-    <t xml:space="preserve">placeboConceptUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/placeboConceptUri</t>
   </si>
   <si>
     <t xml:space="preserve">drug</t>
@@ -279,13 +279,13 @@
     <t xml:space="preserve">placeboDatasetUri</t>
   </si>
   <si>
-    <t xml:space="preserve">vildaConceptUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/vildaConceptUri</t>
   </si>
   <si>
     <t xml:space="preserve">vildaDatasetUri</t>
   </si>
   <si>
-    <t xml:space="preserve">bursitisConceptUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/bursitisConceptUri</t>
   </si>
   <si>
     <t xml:space="preserve">Bursitis</t>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">bursitisDatasetUri</t>
   </si>
   <si>
-    <t xml:space="preserve">milligramConceptUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/milligramConceptUri</t>
   </si>
   <si>
     <t xml:space="preserve">milligram</t>
@@ -310,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -332,6 +332,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,12 +382,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,13 +414,13 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +666,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -671,13 +681,13 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,7 +740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>40</v>
       </c>
@@ -741,8 +751,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -786,7 +796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>48</v>
       </c>
@@ -817,7 +827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>51</v>
       </c>
@@ -831,7 +841,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -846,13 +856,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,7 +896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>60</v>
       </c>
@@ -900,7 +910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>64</v>
       </c>
@@ -917,7 +927,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -932,13 +942,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,7 +1007,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1012,13 +1022,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1057,7 @@
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Epochs!A2</f>
-        <v>randomisationEpochUri</v>
+        <v>http://trials.drugis.org/instances/randomisationEpochUri</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>71</v>
@@ -1065,7 +1075,7 @@
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Epochs!A3</f>
-        <v>treatmentPhaseEpochUri</v>
+        <v>http://trials.drugis.org/instances/treatmentPhaseEpochUri</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>71</v>
@@ -1083,7 +1093,7 @@
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Epochs!A3</f>
-        <v>treatmentPhaseEpochUri</v>
+        <v>http://trials.drugis.org/instances/treatmentPhaseEpochUri</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>76</v>
@@ -1095,7 +1105,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1110,13 +1120,13 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1208,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/excelImport/teststudyStructured.xlsx
+++ b/src/test/resources/excelImport/teststudyStructured.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Study data" sheetId="1" state="visible" r:id="rId2"/>
@@ -276,13 +276,13 @@
     <t xml:space="preserve">drug</t>
   </si>
   <si>
-    <t xml:space="preserve">placeboDatasetUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/placeboDatasetUri</t>
   </si>
   <si>
     <t xml:space="preserve">http://trials.drugis.org/instances/vildaConceptUri</t>
   </si>
   <si>
-    <t xml:space="preserve">vildaDatasetUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/vildaDatasetUri</t>
   </si>
   <si>
     <t xml:space="preserve">http://trials.drugis.org/instances/bursitisConceptUri</t>
@@ -291,7 +291,7 @@
     <t xml:space="preserve">Bursitis</t>
   </si>
   <si>
-    <t xml:space="preserve">bursitisDatasetUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/bursitisDatasetUri</t>
   </si>
   <si>
     <t xml:space="preserve">http://trials.drugis.org/instances/milligramConceptUri</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">milligram</t>
   </si>
   <si>
-    <t xml:space="preserve">milligramDatasetUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/milligramDatasetUri</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -332,12 +332,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="D5 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,7 +676,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,7 +851,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,7 +937,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="D5 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,7 +1017,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D5 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,13 +1114,15 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="9.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/excelImport/teststudyStructured.xlsx
+++ b/src/test/resources/excelImport/teststudyStructured.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Study data" sheetId="1" state="visible" r:id="rId2"/>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">milligram</t>
   </si>
   <si>
-    <t xml:space="preserve">http://trials.drugis.org/concepts/milligramDatasetUri</t>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/datasetGramConcept</t>
   </si>
 </sst>
 </file>
@@ -408,13 +408,13 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="D5 F16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,7 +660,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -675,13 +675,13 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D5 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +835,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -850,13 +850,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D5 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,7 +921,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -936,13 +936,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="D5 D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,7 +1001,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1016,13 +1016,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D5 A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.02"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,8 +1050,8 @@
         <v>70</v>
       </c>
       <c r="C2" s="0" t="str">
-        <f aca="false">Epochs!A2</f>
-        <v>http://trials.drugis.org/instances/randomisationEpochUri</v>
+        <f aca="false">Epochs!B2</f>
+        <v>Randomisation</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>71</v>
@@ -1068,8 +1068,8 @@
         <v>73</v>
       </c>
       <c r="C3" s="0" t="str">
-        <f aca="false">Epochs!A3</f>
-        <v>http://trials.drugis.org/instances/treatmentPhaseEpochUri</v>
+        <f aca="false">Epochs!B3</f>
+        <v>treatment phase</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>71</v>
@@ -1086,8 +1086,8 @@
         <v>75</v>
       </c>
       <c r="C4" s="0" t="str">
-        <f aca="false">Epochs!A3</f>
-        <v>http://trials.drugis.org/instances/treatmentPhaseEpochUri</v>
+        <f aca="false">Epochs!B3</f>
+        <v>treatment phase</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>76</v>
@@ -1099,7 +1099,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1114,15 +1114,15 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="9.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.02"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,7 +1204,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
